--- a/Data/Input/Macleay Valley Resident List.xlsx
+++ b/Data/Input/Macleay Valley Resident List.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://processx-my.sharepoint.com/personal/px_dev_process-x_com_au/Documents/Documents/UiPath/LeeCare_Transformer/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{092729B9-0D6F-4B6A-902C-9666B39EB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5744107-D74C-4F1C-AF5D-77F72CAC9BE1}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{ECE87885-C607-464F-8471-348D0AFED2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E793F506-F685-4459-9422-D3AE92D735F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC1C71F4-9BD2-4740-A446-1D3F180A9F50}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{EC1C71F4-9BD2-4740-A446-1D3F180A9F50}"/>
   </bookViews>
   <sheets>
-    <sheet name="ResidentData" sheetId="1" r:id="rId1"/>
-    <sheet name="Forms" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="337">
   <si>
     <t>Consumer Code</t>
   </si>
@@ -117,38 +118,944 @@
     <t>Norm</t>
   </si>
   <si>
-    <t>Forms</t>
-  </si>
-  <si>
-    <t>Functional Assessment</t>
-  </si>
-  <si>
-    <t>Main Heading</t>
-  </si>
-  <si>
-    <t>Assesments / Evaluations</t>
-  </si>
-  <si>
-    <t>Assesments / Plans</t>
-  </si>
-  <si>
-    <t>Behaviour Assessment</t>
-  </si>
-  <si>
-    <t>Advanced Health Care Directives</t>
-  </si>
-  <si>
-    <t>Continence Assessment - post 3-4 Day Assessment</t>
-  </si>
-  <si>
-    <t>Level of Understanding - Cognitive Function</t>
+    <t>MCV_06</t>
+  </si>
+  <si>
+    <t>Beauchamp</t>
+  </si>
+  <si>
+    <t>Hilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilton </t>
+  </si>
+  <si>
+    <t>MCV_07</t>
+  </si>
+  <si>
+    <t>Blackert</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>MCV_08</t>
+  </si>
+  <si>
+    <t>Booth</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>MCV_09</t>
+  </si>
+  <si>
+    <t>Borger</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>MCV_10</t>
+  </si>
+  <si>
+    <t>Botfield</t>
+  </si>
+  <si>
+    <t>Sybil</t>
+  </si>
+  <si>
+    <t>MCV_11</t>
+  </si>
+  <si>
+    <t>Bray</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Kath</t>
+  </si>
+  <si>
+    <t>MCV_12</t>
+  </si>
+  <si>
+    <t>Britten</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Maurie</t>
+  </si>
+  <si>
+    <t>MCV_13</t>
+  </si>
+  <si>
+    <t>Brotherton</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>MCV_14</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Carol or Carolyn</t>
+  </si>
+  <si>
+    <t>MCV_15</t>
+  </si>
+  <si>
+    <t>Budden</t>
+  </si>
+  <si>
+    <t>Hazel</t>
+  </si>
+  <si>
+    <t>MCV_16</t>
+  </si>
+  <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Aud or Audrey</t>
+  </si>
+  <si>
+    <t>MCV_17</t>
+  </si>
+  <si>
+    <t>Busby</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>MCV_18</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirley </t>
+  </si>
+  <si>
+    <t>MCV_19</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>MCV_20</t>
+  </si>
+  <si>
+    <t>Coady</t>
+  </si>
+  <si>
+    <t>Karin</t>
+  </si>
+  <si>
+    <t>MCV_21</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Shirley or Shirl</t>
+  </si>
+  <si>
+    <t>MCV_22</t>
+  </si>
+  <si>
+    <t>Coughran</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>MCV_23</t>
+  </si>
+  <si>
+    <t>Dalby</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>MCV_24</t>
+  </si>
+  <si>
+    <t>Dawkins</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>MCV_25</t>
+  </si>
+  <si>
+    <t>Denning</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Geoff</t>
+  </si>
+  <si>
+    <t>MCV_26</t>
+  </si>
+  <si>
+    <t>Dix</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>MCV_27</t>
+  </si>
+  <si>
+    <t>Dodd</t>
+  </si>
+  <si>
+    <t>Betty or Bet</t>
+  </si>
+  <si>
+    <t>MCV_28</t>
+  </si>
+  <si>
+    <t>Elford</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>MCV_29</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>MCV_30</t>
+  </si>
+  <si>
+    <t>Ferris</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>MCV_31</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>MCV_32</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>MCV_33</t>
+  </si>
+  <si>
+    <t>Gillogly</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>MCV_34</t>
+  </si>
+  <si>
+    <t>Goodwin</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>MCV_35</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>MCV_36</t>
+  </si>
+  <si>
+    <t>Hadfield</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>MCV_37</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>MCV_38</t>
+  </si>
+  <si>
+    <t>MCV_39</t>
+  </si>
+  <si>
+    <t>Hawken</t>
+  </si>
+  <si>
+    <t>Mervyn</t>
+  </si>
+  <si>
+    <t>Mervyn or Merv</t>
+  </si>
+  <si>
+    <t>MCV_40</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Colleen</t>
+  </si>
+  <si>
+    <t>MCV_41</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Beryl</t>
+  </si>
+  <si>
+    <t>MCV_42</t>
+  </si>
+  <si>
+    <t>Hills</t>
+  </si>
+  <si>
+    <t>MCV_43</t>
+  </si>
+  <si>
+    <t>MCV_44</t>
+  </si>
+  <si>
+    <t>Holfter</t>
+  </si>
+  <si>
+    <t>Anne-Marie</t>
+  </si>
+  <si>
+    <t>MCV_45</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>MCV_46</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jill </t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>MCV_47</t>
+  </si>
+  <si>
+    <t>Kaye</t>
+  </si>
+  <si>
+    <t>MCV_48</t>
+  </si>
+  <si>
+    <t>MCV_49</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>MCV_50</t>
+  </si>
+  <si>
+    <t>Kirkwood</t>
+  </si>
+  <si>
+    <t>Noeline</t>
+  </si>
+  <si>
+    <t>MCV_51</t>
+  </si>
+  <si>
+    <t>Larue</t>
+  </si>
+  <si>
+    <t>Josiane</t>
+  </si>
+  <si>
+    <t>MCV_52</t>
+  </si>
+  <si>
+    <t>Lawrie</t>
+  </si>
+  <si>
+    <t>MCV_53</t>
+  </si>
+  <si>
+    <t>Lees</t>
+  </si>
+  <si>
+    <t>Dilys</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>MCV_54</t>
+  </si>
+  <si>
+    <t>Robyn</t>
+  </si>
+  <si>
+    <t>MCV_55</t>
+  </si>
+  <si>
+    <t>Legge</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>MCV_56</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>MCV_57</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>MCV_58</t>
+  </si>
+  <si>
+    <t>Lyell</t>
+  </si>
+  <si>
+    <t>MCV_59</t>
+  </si>
+  <si>
+    <t>Mackay</t>
+  </si>
+  <si>
+    <t>Elsie</t>
+  </si>
+  <si>
+    <t>MCV_60</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Agnes</t>
+  </si>
+  <si>
+    <t>MCV_61</t>
+  </si>
+  <si>
+    <t>Inga</t>
+  </si>
+  <si>
+    <t>MCV_62</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>MCV_63</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Cathy</t>
+  </si>
+  <si>
+    <t>MCV_64</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>MCV_65</t>
+  </si>
+  <si>
+    <t>McIver</t>
+  </si>
+  <si>
+    <t>Bronwyn</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>MCV_66</t>
+  </si>
+  <si>
+    <t>McKay</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Doreen</t>
+  </si>
+  <si>
+    <t>MCV_67</t>
+  </si>
+  <si>
+    <t>Mckenzie</t>
+  </si>
+  <si>
+    <t>Maggs</t>
+  </si>
+  <si>
+    <t>MCV_68</t>
+  </si>
+  <si>
+    <t>Mckiernan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirely </t>
+  </si>
+  <si>
+    <t>MCV_69</t>
+  </si>
+  <si>
+    <t>McLennan</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>MCV_70</t>
+  </si>
+  <si>
+    <t>McMillan</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Franky</t>
+  </si>
+  <si>
+    <t>MCV_71</t>
+  </si>
+  <si>
+    <t>Morley</t>
+  </si>
+  <si>
+    <t>Beverley</t>
+  </si>
+  <si>
+    <t>Bev</t>
+  </si>
+  <si>
+    <t>MCV_72</t>
+  </si>
+  <si>
+    <t>Nairn</t>
+  </si>
+  <si>
+    <t>Yvonne or Vonnie</t>
+  </si>
+  <si>
+    <t>MCV_73</t>
+  </si>
+  <si>
+    <t>Neave</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>MCV_74</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>Terese</t>
+  </si>
+  <si>
+    <t>MCV_75</t>
+  </si>
+  <si>
+    <t>Oakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara </t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>MCV_76</t>
+  </si>
+  <si>
+    <t>Parris</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>MCV_77</t>
+  </si>
+  <si>
+    <t>Perrin</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>MCV_78</t>
+  </si>
+  <si>
+    <t>Pucci</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>MCV_79</t>
+  </si>
+  <si>
+    <t>Reckless</t>
+  </si>
+  <si>
+    <t>MCV_80</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>MCV_81</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>Edna</t>
+  </si>
+  <si>
+    <t>MCV_82</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Lesley</t>
+  </si>
+  <si>
+    <t>MCV_83</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloreen </t>
+  </si>
+  <si>
+    <t>Gloreen</t>
+  </si>
+  <si>
+    <t>MCV_84</t>
+  </si>
+  <si>
+    <t>Schwarz</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>MCV_85</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>MCV_86</t>
+  </si>
+  <si>
+    <t>Seam</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>MCV_87</t>
+  </si>
+  <si>
+    <t>Shephard</t>
+  </si>
+  <si>
+    <t>Sonja</t>
+  </si>
+  <si>
+    <t>MCV_88</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Madge</t>
+  </si>
+  <si>
+    <t>MCV_89</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Greta</t>
+  </si>
+  <si>
+    <t>MCV_90</t>
+  </si>
+  <si>
+    <t>Slocombe</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>MCV_91</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>MCV_92</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>MCV_93</t>
+  </si>
+  <si>
+    <t>Smithson</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>MCV_94</t>
+  </si>
+  <si>
+    <t>Stevenson</t>
+  </si>
+  <si>
+    <t>Jeannene</t>
+  </si>
+  <si>
+    <t>MCV_95</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>MCV_96</t>
+  </si>
+  <si>
+    <t>Wilma</t>
+  </si>
+  <si>
+    <t>MCV_97</t>
+  </si>
+  <si>
+    <t>Tabor</t>
+  </si>
+  <si>
+    <t>MCV_98</t>
+  </si>
+  <si>
+    <t>Terlich</t>
+  </si>
+  <si>
+    <t>MCV_99</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>MCV_100</t>
+  </si>
+  <si>
+    <t>Timmermans</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>MCV_101</t>
+  </si>
+  <si>
+    <t>Van Groutel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilhelmus </t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>MCV_102</t>
+  </si>
+  <si>
+    <t>Von Demleux</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>MCV_103</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>MCV_104</t>
+  </si>
+  <si>
+    <t>Weaver</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>MCV_105</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>MCV_106</t>
+  </si>
+  <si>
+    <t>Wicks</t>
+  </si>
+  <si>
+    <t>Lillian</t>
+  </si>
+  <si>
+    <t>MCV_107</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Barb</t>
+  </si>
+  <si>
+    <t>MCV_108</t>
+  </si>
+  <si>
+    <t>MCV_109</t>
+  </si>
+  <si>
+    <t>Woon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,24 +1067,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -201,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,13 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +1438,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC20A80-808E-014B-A725-5A992E6909C1}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256665BC-8334-4AF5-8B3C-1EFBA375668C}">
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -592,181 +1476,5772 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2">
-        <v>1430</v>
+        <v>1458</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2">
-        <v>1453</v>
+        <v>1511</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2">
-        <v>1470</v>
+        <v>1478</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2">
-        <v>1434</v>
+        <v>1448</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1432</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1460</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1412</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1416</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1456</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1481</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1421</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1483</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1499</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1426</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1435</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1423</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1440</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1441</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1465</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1485</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1479</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1509</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1428</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1468</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1471</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1415</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1489</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1514</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1467</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1461</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1419</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1512</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1469</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1518</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1433</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1504</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1463</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1513</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1515</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1474</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1425</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1420</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1487</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1446</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1411</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1442</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1413</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1505</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1506</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1422</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1444</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1472</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1496</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>322</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1438</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1439</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1417</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1488</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1454</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417DE75E-EBC6-4E8B-8EC3-2437EE0517B2}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E39BDE-7B95-461E-BA3D-DECB1A1EDF0D}">
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.875" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1430</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1453</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1470</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1434</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1502</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7" s="2">
+        <v>1457</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1452</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="B9" s="2">
+        <v>1429</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1497</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1443</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1517</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1475</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1459</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1507</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1484</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1427</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1450</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1477</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1431</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1447</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1455</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1516</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1466</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1424</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1482</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1498</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1486</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1418</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1476</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1495</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1508</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1501</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1491</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1492</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1449</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1493</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1445</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1464</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1414</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1510</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1490</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1436</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1437</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1458</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1511</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1478</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1448</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1494</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1432</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1460</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1412</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1416</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1456</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1481</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1421</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1483</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1499</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1426</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1435</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1423</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1440</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1441</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1465</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1485</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1479</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1509</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1428</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1468</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1471</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1415</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1489</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1514</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1467</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1461</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1419</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1512</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1469</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1518</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1433</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1504</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1463</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1513</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1515</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1474</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1425</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1420</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1487</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1446</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1411</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1442</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1413</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1505</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1506</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1422</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1444</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1472</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1496</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1438</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1439</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1417</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1488</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1454</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DBF06C-3669-45D0-A3E3-CD2E55A50356}">
+  <dimension ref="A1:G110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1430</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1453</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1470</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1434</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1502</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1457</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1452</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1429</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1497</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1443</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1517</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1475</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1459</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1507</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1484</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1427</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1450</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1477</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1431</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1447</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1455</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1516</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1466</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1424</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1482</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1498</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1486</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1418</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1476</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1495</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1508</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1501</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1491</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1492</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1449</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1493</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1445</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1464</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1414</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1510</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1490</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1436</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1437</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1458</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1511</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1478</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1448</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1494</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1432</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1460</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1412</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1416</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1456</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1481</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1421</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1483</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1499</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1426</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1435</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1423</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1440</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1441</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1465</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1485</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1479</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1509</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1428</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1468</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1471</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1415</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1489</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1514</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1467</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1461</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1419</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1512</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1469</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1518</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1433</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1504</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1463</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1513</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1515</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1474</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1425</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1420</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1487</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1446</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1411</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1442</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1413</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1505</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1506</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1422</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1444</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1472</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1496</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1438</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1439</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1417</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1488</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1454</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Data/Input/Macleay Valley Resident List.xlsx
+++ b/Data/Input/Macleay Valley Resident List.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://processx-my.sharepoint.com/personal/px_dev_process-x_com_au/Documents/Documents/UiPath/LeeCare_Transformer/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{ECE87885-C607-464F-8471-348D0AFED2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E793F506-F685-4459-9422-D3AE92D735F0}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{ECE87885-C607-464F-8471-348D0AFED2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC44E801-A65E-4666-8D31-A2FF5E8F8504}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{EC1C71F4-9BD2-4740-A446-1D3F180A9F50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC1C71F4-9BD2-4740-A446-1D3F180A9F50}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="11" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet1 (3)" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="337">
   <si>
     <t>Consumer Code</t>
   </si>
@@ -1438,11 +1437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256665BC-8334-4AF5-8B3C-1EFBA375668C}">
-  <dimension ref="A1:G67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E39BDE-7B95-461E-BA3D-DECB1A1EDF0D}">
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1476,1039 +1475,1039 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>1458</v>
+        <v>1430</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>1511</v>
+        <v>1453</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>1432</v>
+        <v>1457</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
-        <v>1412</v>
+        <v>1429</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
-        <v>1416</v>
+        <v>1497</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
-        <v>1456</v>
+        <v>1443</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
-        <v>1481</v>
+        <v>1517</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
-        <v>1421</v>
+        <v>1475</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
-        <v>1483</v>
+        <v>1459</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2">
-        <v>1426</v>
+        <v>1484</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2">
-        <v>1423</v>
+        <v>1450</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2">
-        <v>1440</v>
+        <v>1477</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2">
-        <v>1485</v>
+        <v>1455</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2">
-        <v>1479</v>
+        <v>1516</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2">
-        <v>1509</v>
+        <v>1466</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2">
-        <v>1468</v>
+        <v>1482</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2">
-        <v>1471</v>
+        <v>1498</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2">
-        <v>1451</v>
+        <v>1486</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="B33" s="2">
-        <v>1467</v>
+        <v>1501</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2">
-        <v>1461</v>
+        <v>1491</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>239</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="B35" s="2">
-        <v>1419</v>
+        <v>1492</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2">
-        <v>1512</v>
+        <v>1449</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="B37" s="2">
-        <v>1469</v>
+        <v>1493</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2">
-        <v>1518</v>
+        <v>1445</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2">
-        <v>1433</v>
+        <v>1464</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2">
-        <v>1504</v>
+        <v>1414</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2">
-        <v>1463</v>
+        <v>1510</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2">
-        <v>1513</v>
+        <v>1490</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="B43" s="2">
-        <v>1515</v>
+        <v>1436</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>267</v>
+        <v>102</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="B44" s="2">
-        <v>1474</v>
+        <v>1437</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>271</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2">
-        <v>1425</v>
+        <v>1458</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2">
-        <v>1420</v>
+        <v>1511</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="B47" s="2">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>280</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="B48" s="2">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>282</v>
+        <v>154</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2">
-        <v>1411</v>
+        <v>1494</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="B50" s="2">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="B51" s="2">
-        <v>1413</v>
+        <v>1460</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="B52" s="2">
-        <v>1500</v>
+        <v>1412</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="B53" s="2">
-        <v>1505</v>
+        <v>1416</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>299</v>
+        <v>118</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>118</v>
@@ -2516,281 +2515,1141 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="B54" s="2">
-        <v>1506</v>
+        <v>1456</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>301</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="B55" s="2">
-        <v>1422</v>
+        <v>1481</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2">
-        <v>1444</v>
+        <v>1421</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="B57" s="2">
-        <v>1462</v>
+        <v>1483</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>308</v>
+        <v>177</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="B58" s="2">
-        <v>1473</v>
+        <v>1499</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="B59" s="2">
-        <v>1503</v>
+        <v>1426</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>315</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="B60" s="2">
-        <v>1472</v>
+        <v>1435</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="B61" s="2">
-        <v>1496</v>
+        <v>1423</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="B62" s="2">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>325</v>
+        <v>192</v>
       </c>
       <c r="B63" s="2">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>327</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>194</v>
       </c>
       <c r="B64" s="2">
-        <v>1410</v>
+        <v>1465</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>318</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2">
-        <v>1417</v>
+        <v>1485</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>332</v>
+        <v>198</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1509</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1428</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1468</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1471</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1415</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1489</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1514</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1467</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1461</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1419</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1512</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1469</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1518</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1433</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1504</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1463</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1513</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1515</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1474</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1425</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1420</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1487</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1446</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1411</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1442</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1413</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1505</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1506</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1422</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1444</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1472</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1496</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1438</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1439</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1417</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1488</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>335</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B110" s="2">
         <v>1454</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="C110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2801,11 +3660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E39BDE-7B95-461E-BA3D-DECB1A1EDF0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DBF06C-3669-45D0-A3E3-CD2E55A50356}">
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5021,2227 +5880,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DBF06C-3669-45D0-A3E3-CD2E55A50356}">
-  <dimension ref="A1:G110"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1430</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1453</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1470</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1434</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1502</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1457</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1452</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1429</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1497</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1443</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1517</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1475</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1459</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1507</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1484</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1427</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1450</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1477</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1431</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1447</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1455</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1516</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1466</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1424</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1482</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1498</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1486</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1418</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1476</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1495</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1508</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1501</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1491</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1492</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1449</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1493</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1445</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1464</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1414</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1510</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1490</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1436</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1437</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1458</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1511</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1478</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1448</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1494</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1432</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1460</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1412</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1416</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>166</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1456</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1481</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1421</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1483</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1499</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1426</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1435</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1423</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1440</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>192</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1441</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1465</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1485</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1479</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1509</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1428</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1468</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="2">
-        <v>1471</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>216</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1451</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" s="2">
-        <v>1415</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>224</v>
-      </c>
-      <c r="B73" s="2">
-        <v>1480</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>227</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1489</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>230</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1514</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>233</v>
-      </c>
-      <c r="B76" s="2">
-        <v>1467</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>237</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1461</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>240</v>
-      </c>
-      <c r="B78" s="2">
-        <v>1419</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>244</v>
-      </c>
-      <c r="B79" s="2">
-        <v>1512</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>247</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1469</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>249</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1518</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>252</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1433</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>255</v>
-      </c>
-      <c r="B83" s="2">
-        <v>1504</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" s="2">
-        <v>1463</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>262</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1513</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>265</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1515</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>268</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1474</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="2">
-        <v>1425</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1420</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>278</v>
-      </c>
-      <c r="B90" s="2">
-        <v>1487</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>281</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1446</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="2">
-        <v>1411</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>288</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1442</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1413</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>294</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1505</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>300</v>
-      </c>
-      <c r="B97" s="2">
-        <v>1506</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>302</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1422</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>304</v>
-      </c>
-      <c r="B99" s="2">
-        <v>1444</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>306</v>
-      </c>
-      <c r="B100" s="2">
-        <v>1462</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>309</v>
-      </c>
-      <c r="B101" s="2">
-        <v>1473</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>312</v>
-      </c>
-      <c r="B102" s="2">
-        <v>1503</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>316</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1472</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>319</v>
-      </c>
-      <c r="B104" s="2">
-        <v>1496</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>322</v>
-      </c>
-      <c r="B105" s="2">
-        <v>1438</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>325</v>
-      </c>
-      <c r="B106" s="2">
-        <v>1439</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>328</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>331</v>
-      </c>
-      <c r="B108" s="2">
-        <v>1417</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>334</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1488</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>335</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1454</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>